--- a/MSO.xlsx
+++ b/MSO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yl647/Documents/GitHub/FREED/E-field_Targeting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yl647/Documents/GitHub/TAP_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45C79A-5B14-E04E-B88B-82171A95E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD368A95-01E9-DC49-8705-F4178802CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hair_Thickness</t>
   </si>
@@ -132,12 +132,18 @@
       <t xml:space="preserve"> safety limit (% MSO):</t>
     </r>
   </si>
+  <si>
+    <t>Group target intensity (% RMT):</t>
+  </si>
+  <si>
+    <t>Individual safety limit (% RMT):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -157,6 +163,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -190,10 +201,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -207,12 +219,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,10 +556,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -579,10 +593,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -612,11 +626,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -632,8 +646,24 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <f>IF(AND(C11&gt;=60,C11&gt;1.3*B3),ROUND(1.3*B3,0), C11)</f>
+        <f>IF(AND(C11&gt;=(50*C15),C11&gt;(C14*B3)),MAX(ROUND(C14*B3,0), 50*C15), C11)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
